--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Thbs1-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Thbs1-Lrp1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.82499266666667</v>
+        <v>21.18599966666667</v>
       </c>
       <c r="H2">
-        <v>56.474978</v>
+        <v>63.557999</v>
       </c>
       <c r="I2">
-        <v>0.06886869772378311</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="J2">
-        <v>0.0688686977237831</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.131233999999999</v>
+        <v>3.795192333333334</v>
       </c>
       <c r="N2">
-        <v>24.393702</v>
+        <v>11.385577</v>
       </c>
       <c r="O2">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="P2">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="Q2">
-        <v>153.0704204209507</v>
+        <v>80.4049435089359</v>
       </c>
       <c r="R2">
-        <v>1377.633783788556</v>
+        <v>723.6444915804232</v>
       </c>
       <c r="S2">
-        <v>0.001440041420597953</v>
+        <v>0.0009152681429817913</v>
       </c>
       <c r="T2">
-        <v>0.001440041420597953</v>
+        <v>0.0009152681429817913</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.82499266666667</v>
+        <v>21.18599966666667</v>
       </c>
       <c r="H3">
-        <v>56.474978</v>
+        <v>63.557999</v>
       </c>
       <c r="I3">
-        <v>0.06886869772378311</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="J3">
-        <v>0.0688686977237831</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +620,25 @@
         <v>243.3763986666667</v>
       </c>
       <c r="N3">
-        <v>730.129196</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O3">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="P3">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="Q3">
-        <v>4581.558920139743</v>
+        <v>5156.172301026534</v>
       </c>
       <c r="R3">
-        <v>41234.03028125768</v>
+        <v>46405.55070923881</v>
       </c>
       <c r="S3">
-        <v>0.04310195658813418</v>
+        <v>0.05869390662938807</v>
       </c>
       <c r="T3">
-        <v>0.04310195658813416</v>
+        <v>0.05869390662938807</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.82499266666667</v>
+        <v>21.18599966666667</v>
       </c>
       <c r="H4">
-        <v>56.474978</v>
+        <v>63.557999</v>
       </c>
       <c r="I4">
-        <v>0.06886869772378311</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="J4">
-        <v>0.0688686977237831</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.41874933333333</v>
+        <v>29.801371</v>
       </c>
       <c r="N4">
-        <v>100.256248</v>
+        <v>89.404113</v>
       </c>
       <c r="O4">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219236</v>
       </c>
       <c r="P4">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219235</v>
       </c>
       <c r="Q4">
-        <v>629.1077111291715</v>
+        <v>631.3718360722097</v>
       </c>
       <c r="R4">
-        <v>5661.969400162544</v>
+        <v>5682.346524649887</v>
       </c>
       <c r="S4">
-        <v>0.005918460010446169</v>
+        <v>0.007187052222337455</v>
       </c>
       <c r="T4">
-        <v>0.005918460010446168</v>
+        <v>0.007187052222337454</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>18.82499266666667</v>
+        <v>21.18599966666667</v>
       </c>
       <c r="H5">
-        <v>56.474978</v>
+        <v>63.557999</v>
       </c>
       <c r="I5">
-        <v>0.06886869772378311</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="J5">
-        <v>0.0688686977237831</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>103.9426383333333</v>
+        <v>86.47679266666667</v>
       </c>
       <c r="N5">
-        <v>311.827915</v>
+        <v>259.430378</v>
       </c>
       <c r="O5">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="P5">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="Q5">
-        <v>1956.719404378985</v>
+        <v>1832.097300610402</v>
       </c>
       <c r="R5">
-        <v>17610.47463941087</v>
+        <v>16488.87570549362</v>
       </c>
       <c r="S5">
-        <v>0.01840823970460482</v>
+        <v>0.02085518900843797</v>
       </c>
       <c r="T5">
-        <v>0.01840823970460481</v>
+        <v>0.02085518900843797</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>365.462677</v>
       </c>
       <c r="I6">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="J6">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.131233999999999</v>
+        <v>3.795192333333334</v>
       </c>
       <c r="N6">
-        <v>24.393702</v>
+        <v>11.385577</v>
       </c>
       <c r="O6">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="P6">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="Q6">
-        <v>990.5541816511394</v>
+        <v>462.3337166232922</v>
       </c>
       <c r="R6">
-        <v>8914.987634860254</v>
+        <v>4161.00344960963</v>
       </c>
       <c r="S6">
-        <v>0.009318841922569869</v>
+        <v>0.005262852055914225</v>
       </c>
       <c r="T6">
-        <v>0.009318841922569869</v>
+        <v>0.005262852055914225</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>365.462677</v>
       </c>
       <c r="I7">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="J7">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,25 +868,25 @@
         <v>243.3763986666667</v>
       </c>
       <c r="N7">
-        <v>730.129196</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O7">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="P7">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="Q7">
-        <v>29648.33005844641</v>
+        <v>29648.33005844642</v>
       </c>
       <c r="R7">
-        <v>266834.9705260177</v>
+        <v>266834.9705260178</v>
       </c>
       <c r="S7">
-        <v>0.2789227547576434</v>
+        <v>0.337493825763209</v>
       </c>
       <c r="T7">
-        <v>0.2789227547576433</v>
+        <v>0.337493825763209</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>365.462677</v>
       </c>
       <c r="I8">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="J8">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>33.41874933333333</v>
+        <v>29.801371</v>
       </c>
       <c r="N8">
-        <v>100.256248</v>
+        <v>89.404113</v>
       </c>
       <c r="O8">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219236</v>
       </c>
       <c r="P8">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219235</v>
       </c>
       <c r="Q8">
-        <v>4071.101864450655</v>
+        <v>3630.429607976723</v>
       </c>
       <c r="R8">
-        <v>36639.9167800559</v>
+        <v>32673.8664717905</v>
       </c>
       <c r="S8">
-        <v>0.03829972698944841</v>
+        <v>0.04132602325813067</v>
       </c>
       <c r="T8">
-        <v>0.03829972698944841</v>
+        <v>0.04132602325813066</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>365.462677</v>
       </c>
       <c r="I9">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="J9">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>103.9426383333333</v>
+        <v>86.47679266666667</v>
       </c>
       <c r="N9">
-        <v>311.827915</v>
+        <v>259.430378</v>
       </c>
       <c r="O9">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="P9">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="Q9">
-        <v>12662.38495324761</v>
+        <v>10534.68004877799</v>
       </c>
       <c r="R9">
-        <v>113961.4645792285</v>
+        <v>94812.12043900193</v>
       </c>
       <c r="S9">
-        <v>0.1191239872869462</v>
+        <v>0.1199187092778789</v>
       </c>
       <c r="T9">
-        <v>0.1191239872869462</v>
+        <v>0.1199187092778789</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>45.02666966666666</v>
+        <v>37.20718233333333</v>
       </c>
       <c r="H10">
-        <v>135.080009</v>
+        <v>111.621547</v>
       </c>
       <c r="I10">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="J10">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.131233999999999</v>
+        <v>3.795192333333334</v>
       </c>
       <c r="N10">
-        <v>24.393702</v>
+        <v>11.385577</v>
       </c>
       <c r="O10">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="P10">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="Q10">
-        <v>366.1223873003686</v>
+        <v>141.2084131364021</v>
       </c>
       <c r="R10">
-        <v>3295.101485703317</v>
+        <v>1270.875718227619</v>
       </c>
       <c r="S10">
-        <v>0.00344437155964442</v>
+        <v>0.001607408157066819</v>
       </c>
       <c r="T10">
-        <v>0.00344437155964442</v>
+        <v>0.001607408157066819</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>45.02666966666666</v>
+        <v>37.20718233333333</v>
       </c>
       <c r="H11">
-        <v>135.080009</v>
+        <v>111.621547</v>
       </c>
       <c r="I11">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="J11">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,25 +1116,25 @@
         <v>243.3763986666667</v>
       </c>
       <c r="N11">
-        <v>730.129196</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O11">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="P11">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="Q11">
-        <v>10958.42870742697</v>
+        <v>9055.350040820689</v>
       </c>
       <c r="R11">
-        <v>98625.85836684276</v>
+        <v>81498.15036738622</v>
       </c>
       <c r="S11">
-        <v>0.1030936689137404</v>
+        <v>0.1030791522786274</v>
       </c>
       <c r="T11">
-        <v>0.1030936689137404</v>
+        <v>0.1030791522786275</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>45.02666966666666</v>
+        <v>37.20718233333333</v>
       </c>
       <c r="H12">
-        <v>135.080009</v>
+        <v>111.621547</v>
       </c>
       <c r="I12">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="J12">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.41874933333333</v>
+        <v>29.801371</v>
       </c>
       <c r="N12">
-        <v>100.256248</v>
+        <v>89.404113</v>
       </c>
       <c r="O12">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219236</v>
       </c>
       <c r="P12">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219235</v>
       </c>
       <c r="Q12">
-        <v>1504.734986905137</v>
+        <v>1108.825044580312</v>
       </c>
       <c r="R12">
-        <v>13542.61488214623</v>
+        <v>9979.42540122281</v>
       </c>
       <c r="S12">
-        <v>0.01415610346014138</v>
+        <v>0.01262201296530897</v>
       </c>
       <c r="T12">
-        <v>0.01415610346014138</v>
+        <v>0.01262201296530897</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>45.02666966666666</v>
+        <v>37.20718233333333</v>
       </c>
       <c r="H13">
-        <v>135.080009</v>
+        <v>111.621547</v>
       </c>
       <c r="I13">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="J13">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>103.9426383333333</v>
+        <v>86.47679266666667</v>
       </c>
       <c r="N13">
-        <v>311.827915</v>
+        <v>259.430378</v>
       </c>
       <c r="O13">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="P13">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="Q13">
-        <v>4680.190840516803</v>
+        <v>3217.557792350529</v>
       </c>
       <c r="R13">
-        <v>42121.71756465123</v>
+        <v>28958.02013115476</v>
       </c>
       <c r="S13">
-        <v>0.04402985663796408</v>
+        <v>0.03662620750692988</v>
       </c>
       <c r="T13">
-        <v>0.04402985663796407</v>
+        <v>0.03662620750692989</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>87.673585</v>
+        <v>61.49336899999999</v>
       </c>
       <c r="H14">
-        <v>263.020755</v>
+        <v>184.480107</v>
       </c>
       <c r="I14">
-        <v>0.3207419907481189</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="J14">
-        <v>0.3207419907481188</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.131233999999999</v>
+        <v>3.795192333333334</v>
       </c>
       <c r="N14">
-        <v>24.393702</v>
+        <v>11.385577</v>
       </c>
       <c r="O14">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="P14">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="Q14">
-        <v>712.8944352538899</v>
+        <v>233.3791625796377</v>
       </c>
       <c r="R14">
-        <v>6416.04991728501</v>
+        <v>2100.412463216739</v>
       </c>
       <c r="S14">
-        <v>0.006706700827345985</v>
+        <v>0.002656609201163997</v>
       </c>
       <c r="T14">
-        <v>0.006706700827345984</v>
+        <v>0.002656609201163997</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>87.673585</v>
+        <v>61.49336899999999</v>
       </c>
       <c r="H15">
-        <v>263.020755</v>
+        <v>184.480107</v>
       </c>
       <c r="I15">
-        <v>0.3207419907481189</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="J15">
-        <v>0.3207419907481188</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,25 +1364,25 @@
         <v>243.3763986666667</v>
       </c>
       <c r="N15">
-        <v>730.129196</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O15">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="P15">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="Q15">
-        <v>21337.68137549589</v>
+        <v>14966.03468910044</v>
       </c>
       <c r="R15">
-        <v>192039.132379463</v>
+        <v>134694.312201904</v>
       </c>
       <c r="S15">
-        <v>0.2007386202751292</v>
+        <v>0.1703618481638718</v>
       </c>
       <c r="T15">
-        <v>0.2007386202751292</v>
+        <v>0.1703618481638718</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>87.673585</v>
+        <v>61.49336899999999</v>
       </c>
       <c r="H16">
-        <v>263.020755</v>
+        <v>184.480107</v>
       </c>
       <c r="I16">
-        <v>0.3207419907481189</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="J16">
-        <v>0.3207419907481188</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>33.41874933333333</v>
+        <v>29.801371</v>
       </c>
       <c r="N16">
-        <v>100.256248</v>
+        <v>89.404113</v>
       </c>
       <c r="O16">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219236</v>
       </c>
       <c r="P16">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219235</v>
       </c>
       <c r="Q16">
-        <v>2929.941560269693</v>
+        <v>1832.586703608899</v>
       </c>
       <c r="R16">
-        <v>26369.47404242724</v>
+        <v>16493.28033248009</v>
       </c>
       <c r="S16">
-        <v>0.02756402703485532</v>
+        <v>0.02086075999641526</v>
       </c>
       <c r="T16">
-        <v>0.02756402703485532</v>
+        <v>0.02086075999641526</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>87.673585</v>
+        <v>61.49336899999999</v>
       </c>
       <c r="H17">
-        <v>263.020755</v>
+        <v>184.480107</v>
       </c>
       <c r="I17">
-        <v>0.3207419907481189</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="J17">
-        <v>0.3207419907481188</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>103.9426383333333</v>
+        <v>86.47679266666667</v>
       </c>
       <c r="N17">
-        <v>311.827915</v>
+        <v>259.430378</v>
       </c>
       <c r="O17">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="P17">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="Q17">
-        <v>9113.023737041758</v>
+        <v>5317.749321387827</v>
       </c>
       <c r="R17">
-        <v>82017.21363337582</v>
+        <v>47859.74389249044</v>
       </c>
       <c r="S17">
-        <v>0.08573264261078838</v>
+        <v>0.06053317537233763</v>
       </c>
       <c r="T17">
-        <v>0.08573264261078835</v>
+        <v>0.06053317537233763</v>
       </c>
     </row>
   </sheetData>
